--- a/data_to_present.xlsx
+++ b/data_to_present.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shuang/Documents/GitHub/Sicong-deep-learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F5623B-EB94-544B-AFA7-1353EFEFD4FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AE6220-3675-814C-BD74-C4C5B7D31873}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15700" xr2:uid="{6F360979-00A1-814F-AE32-6FC5806C2D19}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Data smile</t>
   </si>
@@ -75,6 +75,18 @@
   </si>
   <si>
     <t>Smile (standard)</t>
+  </si>
+  <si>
+    <t>低头看手机</t>
+  </si>
+  <si>
+    <t>时间不同</t>
+  </si>
+  <si>
+    <t>也许在看书</t>
+  </si>
+  <si>
+    <t>s-parks_2000@tamu.edu</t>
   </si>
 </sst>
 </file>
@@ -84,10 +96,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -110,14 +130,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -430,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB071F2-91AE-E640-B069-1564C1725610}">
-  <dimension ref="A2:L13"/>
+  <dimension ref="A2:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -568,6 +591,9 @@
       <c r="D12" t="s">
         <v>12</v>
       </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
@@ -582,8 +608,24 @@
         <f>D7</f>
         <v>87.227450926666663</v>
       </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M18" r:id="rId1" xr:uid="{BA53D344-7F7C-9640-A36C-64EAEC10C348}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>